--- a/bddad/DicionarioDados.xlsx
+++ b/bddad/DicionarioDados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zpedr\OneDrive\Ambiente de Trabalho\BDDAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0DBCD-3F73-422A-967C-6FFC4ED6BCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B21A1DD-07A0-4797-BFE6-63DA9D554D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5BCF6F0B-1B0C-4331-8D3D-7726B89A0057}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5BCF6F0B-1B0C-4331-8D3D-7726B89A0057}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="316">
   <si>
     <t>Variável</t>
   </si>
@@ -969,6 +969,21 @@
   </si>
   <si>
     <t>Até 5 caracteres</t>
+  </si>
+  <si>
+    <t>Designação que identifica uma substância</t>
+  </si>
+  <si>
+    <t>Categoria onde se encontra uma substância</t>
+  </si>
+  <si>
+    <t>Unidade em que determinado componente se encontra expresso</t>
+  </si>
+  <si>
+    <t>A designação de uma substânica é única</t>
+  </si>
+  <si>
+    <t>Até 20 caracteres</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1034,7 +1049,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,22 +1370,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4870DE9-E7DC-4EEE-BD62-A4440C187569}">
   <dimension ref="A1:G574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="68.28515625" customWidth="1"/>
-    <col min="5" max="5" width="150.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="68.33203125" customWidth="1"/>
+    <col min="5" max="5" width="150.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
     <col min="7" max="7" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1417,7 +1431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1452,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,7 +1498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1505,7 +1519,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1528,7 +1542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1574,7 +1588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1595,7 +1609,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1616,7 +1630,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1639,7 +1653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1662,7 +1676,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1683,7 +1697,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1704,7 +1718,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1748,7 +1762,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
@@ -1771,7 +1785,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -1794,7 +1808,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
@@ -1817,7 +1831,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1833,10 +1847,12 @@
       <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1859,7 +1875,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1882,7 +1898,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1905,7 +1921,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -1928,7 +1944,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1949,7 +1965,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1972,7 +1988,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1993,7 +2009,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -2014,7 +2030,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -2035,7 +2051,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -2056,7 +2072,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2079,7 +2095,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -2102,7 +2118,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -2123,7 +2139,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -2146,7 +2162,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
@@ -2167,7 +2183,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -2190,7 +2206,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -2211,7 +2227,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -2234,7 +2250,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -2255,7 +2271,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -2276,7 +2292,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -2297,7 +2313,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -2341,7 +2357,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -2362,7 +2378,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -2383,7 +2399,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
@@ -2406,7 +2422,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -2427,7 +2443,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -2448,7 +2464,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
@@ -2471,7 +2487,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
@@ -2492,7 +2508,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
@@ -2513,7 +2529,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2534,7 +2550,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -2550,10 +2566,12 @@
       <c r="E54" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
@@ -2576,7 +2594,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -2599,7 +2617,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>99</v>
       </c>
@@ -2622,7 +2640,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>100</v>
       </c>
@@ -2638,10 +2656,12 @@
       <c r="E58" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
@@ -2662,7 +2682,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>102</v>
       </c>
@@ -2683,7 +2703,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>103</v>
       </c>
@@ -2704,7 +2724,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>104</v>
       </c>
@@ -2725,7 +2745,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
@@ -2746,7 +2766,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>106</v>
       </c>
@@ -2767,7 +2787,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
@@ -2788,7 +2808,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>108</v>
       </c>
@@ -2809,7 +2829,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>109</v>
       </c>
@@ -2830,7 +2850,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>110</v>
       </c>
@@ -2851,7 +2871,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>111</v>
       </c>
@@ -2872,7 +2892,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2895,7 +2915,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -2916,7 +2936,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>114</v>
       </c>
@@ -2932,10 +2952,12 @@
       <c r="E72" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>115</v>
       </c>
@@ -2951,10 +2973,12 @@
       <c r="E73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>116</v>
       </c>
@@ -2975,7 +2999,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>117</v>
       </c>
@@ -2996,7 +3020,7 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
@@ -3017,7 +3041,7 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>119</v>
       </c>
@@ -3040,7 +3064,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>120</v>
       </c>
@@ -3061,7 +3085,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>121</v>
       </c>
@@ -3074,7 +3098,7 @@
       <c r="D79" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" t="s">
         <v>303</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -3082,7 +3106,7 @@
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>122</v>
       </c>
@@ -3103,7 +3127,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>123</v>
       </c>
@@ -3124,7 +3148,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>124</v>
       </c>
@@ -3145,7 +3169,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>125</v>
       </c>
@@ -3155,12 +3179,20 @@
       <c r="C83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D83" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>126</v>
       </c>
@@ -3170,12 +3202,18 @@
       <c r="C84" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>127</v>
       </c>
@@ -3185,14 +3223,18 @@
       <c r="C85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>128</v>
       </c>
@@ -3213,7 +3255,7 @@
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3222,7 +3264,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3231,7 +3273,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3240,7 +3282,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3249,7 +3291,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3258,7 +3300,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3267,7 +3309,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3276,7 +3318,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3285,7 +3327,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3294,7 +3336,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3303,7 +3345,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3312,7 +3354,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3321,7 +3363,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3330,7 +3372,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3339,7 +3381,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3348,7 +3390,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3357,7 +3399,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3366,7 +3408,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3375,7 +3417,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3384,7 +3426,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3393,7 +3435,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3402,7 +3444,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3411,7 +3453,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3420,7 +3462,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3429,7 +3471,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3438,7 +3480,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3447,7 +3489,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3456,7 +3498,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3465,7 +3507,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3474,7 +3516,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3483,7 +3525,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3492,7 +3534,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3501,7 +3543,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3510,7 +3552,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3519,7 +3561,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3528,7 +3570,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3537,7 +3579,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3546,7 +3588,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3555,7 +3597,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3564,7 +3606,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3573,7 +3615,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3582,7 +3624,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3591,7 +3633,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3600,7 +3642,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3609,7 +3651,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3618,7 +3660,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3627,7 +3669,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3636,7 +3678,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3645,7 +3687,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3654,7 +3696,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3663,7 +3705,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3672,7 +3714,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3681,7 +3723,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3690,7 +3732,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3699,7 +3741,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3708,7 +3750,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3717,7 +3759,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3726,7 +3768,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3735,7 +3777,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3744,7 +3786,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3753,7 +3795,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3762,7 +3804,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3771,7 +3813,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3780,7 +3822,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3789,7 +3831,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3798,7 +3840,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3807,7 +3849,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3816,7 +3858,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3825,7 +3867,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3834,7 +3876,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3843,7 +3885,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3852,7 +3894,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3861,7 +3903,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3870,7 +3912,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3879,7 +3921,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3888,7 +3930,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3897,7 +3939,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3906,7 +3948,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3915,7 +3957,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -3924,7 +3966,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -3933,7 +3975,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -3942,7 +3984,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -3951,7 +3993,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3960,7 +4002,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3969,7 +4011,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3978,7 +4020,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3987,7 +4029,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3996,7 +4038,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4005,7 +4047,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4014,7 +4056,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4023,7 +4065,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4032,7 +4074,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4041,7 +4083,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4050,7 +4092,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4059,7 +4101,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4068,7 +4110,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4077,7 +4119,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4086,7 +4128,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4095,7 +4137,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4104,7 +4146,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4113,7 +4155,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4122,7 +4164,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4131,7 +4173,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4140,7 +4182,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4149,7 +4191,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4158,7 +4200,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4167,7 +4209,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4176,7 +4218,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4185,7 +4227,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4194,7 +4236,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4203,7 +4245,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4212,7 +4254,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4221,7 +4263,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4230,7 +4272,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4239,7 +4281,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -4248,7 +4290,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -4257,7 +4299,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -4266,7 +4308,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -4275,7 +4317,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -4284,7 +4326,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -4293,7 +4335,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -4302,7 +4344,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -4311,7 +4353,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4320,7 +4362,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4329,7 +4371,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4338,7 +4380,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4347,7 +4389,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -4356,7 +4398,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -4365,7 +4407,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -4374,7 +4416,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -4383,7 +4425,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4392,7 +4434,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -4401,7 +4443,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -4410,7 +4452,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -4419,7 +4461,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -4428,7 +4470,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -4437,7 +4479,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -4446,7 +4488,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -4455,7 +4497,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -4464,7 +4506,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -4473,7 +4515,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -4482,7 +4524,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -4491,7 +4533,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -4500,7 +4542,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -4509,7 +4551,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -4518,7 +4560,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -4527,7 +4569,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -4536,7 +4578,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -4545,7 +4587,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -4554,7 +4596,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -4563,7 +4605,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -4572,7 +4614,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -4581,7 +4623,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -4590,7 +4632,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -4599,7 +4641,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -4608,7 +4650,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -4617,7 +4659,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -4626,7 +4668,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -4635,7 +4677,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -4644,7 +4686,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -4653,7 +4695,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -4662,7 +4704,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -4671,7 +4713,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -4680,7 +4722,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -4689,7 +4731,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -4698,7 +4740,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -4707,7 +4749,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -4716,7 +4758,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -4725,7 +4767,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -4734,7 +4776,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -4743,7 +4785,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -4752,7 +4794,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -4761,7 +4803,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -4770,7 +4812,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -4779,7 +4821,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -4788,7 +4830,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -4797,7 +4839,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -4806,7 +4848,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -4815,7 +4857,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4824,7 +4866,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -4833,7 +4875,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -4842,7 +4884,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -4851,7 +4893,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -4860,7 +4902,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -4869,7 +4911,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -4878,7 +4920,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -4887,7 +4929,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -4896,7 +4938,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -4905,7 +4947,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -4914,7 +4956,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -4923,7 +4965,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -4932,7 +4974,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -4941,7 +4983,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -4950,7 +4992,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -4959,7 +5001,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -4968,7 +5010,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -4977,7 +5019,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -4986,7 +5028,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -4995,7 +5037,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -5004,7 +5046,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -5013,7 +5055,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -5022,7 +5064,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -5031,7 +5073,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -5040,7 +5082,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -5049,7 +5091,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -5058,7 +5100,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -5067,7 +5109,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -5076,7 +5118,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -5085,7 +5127,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -5094,7 +5136,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -5103,7 +5145,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -5112,7 +5154,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -5121,7 +5163,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -5130,7 +5172,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -5139,7 +5181,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -5148,7 +5190,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -5157,7 +5199,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -5166,7 +5208,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -5175,7 +5217,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -5184,7 +5226,7 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -5193,7 +5235,7 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -5202,7 +5244,7 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -5211,7 +5253,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -5220,7 +5262,7 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -5229,7 +5271,7 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -5238,7 +5280,7 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -5247,7 +5289,7 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -5256,7 +5298,7 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -5265,7 +5307,7 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -5274,7 +5316,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -5283,7 +5325,7 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -5292,7 +5334,7 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -5301,7 +5343,7 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -5310,7 +5352,7 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -5319,7 +5361,7 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -5328,7 +5370,7 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -5337,7 +5379,7 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -5346,7 +5388,7 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -5355,7 +5397,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -5364,7 +5406,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -5373,7 +5415,7 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -5382,7 +5424,7 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -5391,7 +5433,7 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -5400,7 +5442,7 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -5409,7 +5451,7 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -5418,7 +5460,7 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -5427,7 +5469,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -5436,7 +5478,7 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -5445,7 +5487,7 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -5454,7 +5496,7 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -5463,7 +5505,7 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5472,7 +5514,7 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -5481,7 +5523,7 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -5490,7 +5532,7 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -5499,7 +5541,7 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -5508,7 +5550,7 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -5517,7 +5559,7 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -5526,7 +5568,7 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -5535,7 +5577,7 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -5544,7 +5586,7 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -5553,7 +5595,7 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -5562,7 +5604,7 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -5571,7 +5613,7 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -5580,7 +5622,7 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -5589,7 +5631,7 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -5598,7 +5640,7 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -5607,7 +5649,7 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -5616,7 +5658,7 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -5625,7 +5667,7 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -5634,7 +5676,7 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -5643,7 +5685,7 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -5652,7 +5694,7 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -5661,7 +5703,7 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -5670,7 +5712,7 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -5679,7 +5721,7 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -5688,7 +5730,7 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -5697,7 +5739,7 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -5706,7 +5748,7 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -5715,7 +5757,7 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -5724,7 +5766,7 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -5733,7 +5775,7 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -5742,7 +5784,7 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -5751,7 +5793,7 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -5760,7 +5802,7 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -5769,7 +5811,7 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -5778,7 +5820,7 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -5787,7 +5829,7 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -5796,7 +5838,7 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -5805,7 +5847,7 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -5814,7 +5856,7 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -5823,7 +5865,7 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -5832,7 +5874,7 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -5841,7 +5883,7 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -5850,7 +5892,7 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -5859,7 +5901,7 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -5868,7 +5910,7 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -5877,7 +5919,7 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -5886,7 +5928,7 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -5895,7 +5937,7 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -5904,7 +5946,7 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -5913,7 +5955,7 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -5922,7 +5964,7 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -5931,7 +5973,7 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -5940,7 +5982,7 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -5949,7 +5991,7 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -5958,7 +6000,7 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -5967,7 +6009,7 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -5976,7 +6018,7 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -5985,7 +6027,7 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -5994,7 +6036,7 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -6003,7 +6045,7 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -6012,7 +6054,7 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -6021,7 +6063,7 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -6030,7 +6072,7 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -6039,7 +6081,7 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -6048,7 +6090,7 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -6057,7 +6099,7 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -6066,7 +6108,7 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -6075,7 +6117,7 @@
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -6084,7 +6126,7 @@
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -6093,7 +6135,7 @@
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -6102,7 +6144,7 @@
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -6111,7 +6153,7 @@
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -6120,7 +6162,7 @@
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -6129,7 +6171,7 @@
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -6138,7 +6180,7 @@
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -6147,7 +6189,7 @@
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -6156,7 +6198,7 @@
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -6165,7 +6207,7 @@
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -6174,7 +6216,7 @@
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -6183,7 +6225,7 @@
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -6192,7 +6234,7 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -6201,7 +6243,7 @@
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -6210,7 +6252,7 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -6219,7 +6261,7 @@
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -6228,7 +6270,7 @@
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -6237,7 +6279,7 @@
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -6246,7 +6288,7 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -6255,7 +6297,7 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -6264,7 +6306,7 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -6273,7 +6315,7 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -6282,7 +6324,7 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -6291,7 +6333,7 @@
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -6300,7 +6342,7 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -6309,7 +6351,7 @@
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -6318,7 +6360,7 @@
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -6327,7 +6369,7 @@
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -6336,7 +6378,7 @@
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -6345,7 +6387,7 @@
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -6354,7 +6396,7 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -6363,7 +6405,7 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -6372,7 +6414,7 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -6381,7 +6423,7 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -6390,7 +6432,7 @@
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -6399,7 +6441,7 @@
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -6408,7 +6450,7 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -6417,7 +6459,7 @@
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -6426,7 +6468,7 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -6435,7 +6477,7 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -6444,7 +6486,7 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -6453,7 +6495,7 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -6462,7 +6504,7 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -6471,7 +6513,7 @@
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -6480,7 +6522,7 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -6489,7 +6531,7 @@
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -6498,7 +6540,7 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -6507,7 +6549,7 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -6516,7 +6558,7 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -6525,7 +6567,7 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -6534,7 +6576,7 @@
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -6543,7 +6585,7 @@
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -6552,7 +6594,7 @@
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -6561,7 +6603,7 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -6570,7 +6612,7 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -6579,7 +6621,7 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -6588,7 +6630,7 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -6597,7 +6639,7 @@
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -6606,7 +6648,7 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -6615,7 +6657,7 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -6624,7 +6666,7 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -6633,7 +6675,7 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -6642,7 +6684,7 @@
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -6651,7 +6693,7 @@
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -6660,7 +6702,7 @@
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -6669,7 +6711,7 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -6678,7 +6720,7 @@
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -6687,7 +6729,7 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -6696,7 +6738,7 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -6705,7 +6747,7 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -6714,7 +6756,7 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -6723,7 +6765,7 @@
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -6732,7 +6774,7 @@
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -6741,7 +6783,7 @@
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -6750,7 +6792,7 @@
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -6759,7 +6801,7 @@
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -6768,7 +6810,7 @@
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -6777,7 +6819,7 @@
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -6786,7 +6828,7 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -6795,7 +6837,7 @@
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -6804,7 +6846,7 @@
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -6813,7 +6855,7 @@
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -6822,7 +6864,7 @@
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -6831,7 +6873,7 @@
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -6840,7 +6882,7 @@
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -6849,7 +6891,7 @@
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -6858,7 +6900,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -6867,7 +6909,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -6876,7 +6918,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -6885,7 +6927,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -6894,7 +6936,7 @@
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -6903,7 +6945,7 @@
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -6912,7 +6954,7 @@
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -6921,7 +6963,7 @@
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -6930,7 +6972,7 @@
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -6939,7 +6981,7 @@
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -6948,7 +6990,7 @@
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -6957,7 +6999,7 @@
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -6966,7 +7008,7 @@
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -6975,7 +7017,7 @@
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -6984,7 +7026,7 @@
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -6993,7 +7035,7 @@
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -7002,7 +7044,7 @@
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -7011,7 +7053,7 @@
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -7020,7 +7062,7 @@
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -7029,7 +7071,7 @@
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -7038,7 +7080,7 @@
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -7047,7 +7089,7 @@
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -7056,7 +7098,7 @@
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -7065,7 +7107,7 @@
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -7074,7 +7116,7 @@
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -7083,7 +7125,7 @@
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -7092,7 +7134,7 @@
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -7101,7 +7143,7 @@
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -7110,7 +7152,7 @@
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -7119,7 +7161,7 @@
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -7128,7 +7170,7 @@
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -7137,7 +7179,7 @@
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -7146,7 +7188,7 @@
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -7155,7 +7197,7 @@
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -7164,7 +7206,7 @@
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -7173,7 +7215,7 @@
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -7182,7 +7224,7 @@
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -7191,7 +7233,7 @@
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -7200,7 +7242,7 @@
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -7209,7 +7251,7 @@
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -7218,7 +7260,7 @@
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -7227,7 +7269,7 @@
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -7236,7 +7278,7 @@
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -7245,7 +7287,7 @@
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -7254,7 +7296,7 @@
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -7263,7 +7305,7 @@
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -7272,7 +7314,7 @@
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -7281,7 +7323,7 @@
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -7290,7 +7332,7 @@
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -7299,7 +7341,7 @@
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -7308,7 +7350,7 @@
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -7317,7 +7359,7 @@
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -7326,7 +7368,7 @@
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -7335,7 +7377,7 @@
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -7344,7 +7386,7 @@
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -7353,7 +7395,7 @@
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -7362,7 +7404,7 @@
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -7371,7 +7413,7 @@
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -7380,7 +7422,7 @@
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -7389,7 +7431,7 @@
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -7398,7 +7440,7 @@
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -7407,7 +7449,7 @@
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -7416,7 +7458,7 @@
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -7425,7 +7467,7 @@
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -7434,7 +7476,7 @@
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -7443,7 +7485,7 @@
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -7452,7 +7494,7 @@
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -7461,7 +7503,7 @@
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -7470,7 +7512,7 @@
       <c r="F559" s="1"/>
       <c r="G559" s="1"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -7479,7 +7521,7 @@
       <c r="F560" s="1"/>
       <c r="G560" s="1"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -7488,7 +7530,7 @@
       <c r="F561" s="1"/>
       <c r="G561" s="1"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -7497,7 +7539,7 @@
       <c r="F562" s="1"/>
       <c r="G562" s="1"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -7506,7 +7548,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -7515,7 +7557,7 @@
       <c r="F564" s="1"/>
       <c r="G564" s="1"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -7524,7 +7566,7 @@
       <c r="F565" s="1"/>
       <c r="G565" s="1"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -7533,7 +7575,7 @@
       <c r="F566" s="1"/>
       <c r="G566" s="1"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -7542,7 +7584,7 @@
       <c r="F567" s="1"/>
       <c r="G567" s="1"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -7551,7 +7593,7 @@
       <c r="F568" s="1"/>
       <c r="G568" s="1"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -7560,7 +7602,7 @@
       <c r="F569" s="1"/>
       <c r="G569" s="1"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -7569,7 +7611,7 @@
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -7578,7 +7620,7 @@
       <c r="F571" s="1"/>
       <c r="G571" s="1"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -7587,7 +7629,7 @@
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -7596,7 +7638,7 @@
       <c r="F573" s="1"/>
       <c r="G573" s="1"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
